--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55253.10861767631</v>
+        <v>-63558.0038253307</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448287</v>
+        <v>11715962.26448288</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3154513.636219955</v>
+        <v>3154513.636219956</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>29.12034060099156</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>220.1884077104657</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1505,13 +1505,13 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043568</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W12" t="n">
-        <v>183.469526724137</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X12" t="n">
         <v>153.3187614035088</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.51516921304714</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>255.828298102335</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>288.8551646443306</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.31672394669416</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306881</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V15" t="n">
         <v>197.1263427586206</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>112.576122619078</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.3656182413465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>59.05018481036041</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>361.4649050157276</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.6232235330688</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>155.972925266962</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.51516921304714</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>401.5266111030784</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>126.1536952093191</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
-        <v>124.8306395731028</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U21" t="n">
         <v>174.5071388043578</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>24.83686707040878</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>37.69870921092599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>194.7281928688458</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>216.6435854649209</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>49.25624700652742</v>
+        <v>18.72117102697208</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>143.7721879877244</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>315.17234332221</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2693,7 +2693,7 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W27" t="n">
         <v>183.4695267241379</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>29.91896038064817</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>167.4490654225681</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>138.7679346478756</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>91.60908523184293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.033780699103757</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.0832367239146</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>363.2732274219861</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.1880077594249</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>111.2461524850682</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>400.2521725514255</v>
       </c>
       <c r="C35" t="n">
-        <v>20.4247425449669</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>81.95991040357283</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.033780699103638</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>109.5540470185019</v>
+        <v>65.45709821928017</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.1880077594249</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>202.9938507929472</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>129.7869546973629</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>64.65234145753891</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>137.6542732200403</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>240.759901851163</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>166.9151815679636</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>127.6258376702301</v>
       </c>
       <c r="U46" t="n">
-        <v>191.0053451518775</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1173.712709371906</v>
+        <v>1532.8989903267</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.712709371906</v>
+        <v>1532.8989903267</v>
       </c>
       <c r="D11" t="n">
-        <v>1173.712709371906</v>
+        <v>1096.989205501144</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>1096.989205501144</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>669.121775910352</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>269.6190845898291</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
@@ -5044,10 +5044,10 @@
         <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5059,10 +5059,10 @@
         <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152527</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163595</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447736</v>
@@ -5077,16 +5077,16 @@
         <v>2360.327577447736</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371906</v>
+        <v>1941.185114027046</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.712709371906</v>
+        <v>1532.8989903267</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043081</v>
       </c>
       <c r="J12" t="n">
         <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.795299121068</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960903</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987875</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5153,10 +5153,10 @@
         <v>1505.938530508978</v>
       </c>
       <c r="U12" t="n">
-        <v>1329.668693332859</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V12" t="n">
-        <v>1130.551175394858</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
         <v>945.2284211280532</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369938</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755232</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.46377016183</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.216546065236</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="U13" t="n">
-        <v>1804.829914113979</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="V13" t="n">
-        <v>1517.87440598441</v>
+        <v>602.7042148827113</v>
       </c>
       <c r="W13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>882.6190276950331</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="C14" t="n">
-        <v>882.6190276950331</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="D14" t="n">
-        <v>446.7092428694775</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694775</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694775</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895471</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5293,37 +5293,37 @@
         <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973258</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152527</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163595</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447735</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2326.674320935923</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2114.903069405035</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>2114.903069405035</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>2114.903069405035</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W14" t="n">
-        <v>1710.047614816069</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X14" t="n">
-        <v>1290.90515139538</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="Y14" t="n">
-        <v>882.6190276950331</v>
+        <v>1470.343171017673</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663899</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030321</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495854</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765391</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927007</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235755</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.795299121068</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960903</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987875</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R15" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S15" t="n">
-        <v>1632.030085633325</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T15" t="n">
-        <v>1505.938530508978</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U15" t="n">
-        <v>1329.668693332859</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V15" t="n">
-        <v>1130.551175394858</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280523</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669323</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.875206146153</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1517.874405984409</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="C16" t="n">
-        <v>1517.874405984409</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="D16" t="n">
-        <v>1517.874405984409</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="E16" t="n">
-        <v>1517.874405984409</v>
+        <v>160.9198067197406</v>
       </c>
       <c r="F16" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686592</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.58017025415</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872448</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210977</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014867</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.320157362629</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540312</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770968</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447735</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447735</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351142</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351142</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V16" t="n">
-        <v>1955.084779369984</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W16" t="n">
-        <v>1955.084779369984</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="X16" t="n">
-        <v>1709.693024703396</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="Y16" t="n">
-        <v>1709.693024703396</v>
+        <v>330.6778104690033</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.3558941930739</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C17" t="n">
-        <v>506.3558941930739</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>506.3558941930739</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>506.3558941930739</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>506.3558941930739</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>106.8532028725511</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228015</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.25688596925</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1333.78448131411</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X17" t="n">
-        <v>914.6420178934205</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.3558941930739</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663899</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030321</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495854</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765391</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927007</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235755</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5612,34 +5612,34 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>1632.030085633325</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
-        <v>1505.938530508978</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U18" t="n">
-        <v>1329.668693332859</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V18" t="n">
-        <v>1130.551175394858</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280523</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669323</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.875206146153</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1517.87440598441</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C19" t="n">
-        <v>1517.87440598441</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.87440598441</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E19" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2325.46377016183</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T19" t="n">
-        <v>2083.216546065236</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U19" t="n">
-        <v>1804.829914113979</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V19" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W19" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X19" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y19" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>716.4307943255671</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C20" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D20" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438362</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>1526.868684372189</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1122.013229783222</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>716.4307943255671</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y20" t="n">
-        <v>716.4307943255671</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="21">
@@ -5825,40 +5825,40 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>1632.030085633325</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
         <v>1505.938530508979</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.20655154895472</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C22" t="n">
-        <v>47.20655154895472</v>
+        <v>572.6714729997408</v>
       </c>
       <c r="D22" t="n">
-        <v>47.20655154895472</v>
+        <v>406.7934802012635</v>
       </c>
       <c r="E22" t="n">
-        <v>47.20655154895472</v>
+        <v>237.0354764520008</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895472</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>803.4213591048579</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>889.6597230122809</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U22" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V22" t="n">
-        <v>602.7042148827113</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W22" t="n">
-        <v>330.6778104690028</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X22" t="n">
-        <v>85.28605580241532</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.20655154895472</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1129.815670475324</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C23" t="n">
-        <v>1129.815670475324</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D23" t="n">
-        <v>693.9058856497682</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>693.9058856497682</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>266.0384560589759</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662533</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1957.24425759636</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>1957.24425759636</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>1538.10179417567</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y23" t="n">
-        <v>1129.815670475324</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043084</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>458.2776763869463</v>
+        <v>230.8580057010546</v>
       </c>
       <c r="C25" t="n">
-        <v>458.2776763869463</v>
+        <v>230.8580057010546</v>
       </c>
       <c r="D25" t="n">
-        <v>292.399683588469</v>
+        <v>230.8580057010546</v>
       </c>
       <c r="E25" t="n">
-        <v>292.399683588469</v>
+        <v>230.8580057010546</v>
       </c>
       <c r="F25" t="n">
-        <v>242.6458987333908</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
@@ -6192,7 +6192,7 @@
         <v>458.2776763869463</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.2776763869463</v>
+        <v>230.8580057010546</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1782.900983623584</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
         <v>47.20655154895473</v>
@@ -6223,7 +6223,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
         <v>276.0532770435806</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.256885969251</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W26" t="n">
-        <v>2101.256885969251</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>1889.485634438363</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>859.4385509106165</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C28" t="n">
-        <v>686.8768393938415</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D28" t="n">
-        <v>520.9988465953642</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E28" t="n">
-        <v>520.9988465953642</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
         <v>344.2917925571204</v>
@@ -6411,25 +6411,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T28" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U28" t="n">
-        <v>859.4385509106165</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V28" t="n">
-        <v>859.4385509106165</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W28" t="n">
-        <v>859.4385509106165</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X28" t="n">
-        <v>859.4385509106165</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y28" t="n">
-        <v>859.4385509106165</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>2191.18710732393</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.18710732393</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.900983623584</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
         <v>341.0245550495863</v>
@@ -6533,13 +6533,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.20655154895473</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
@@ -6651,22 +6651,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122813</v>
+        <v>797.1252934851673</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610244</v>
+        <v>797.1252934851673</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314549</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="W31" t="n">
-        <v>52.2911785177464</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="X31" t="n">
-        <v>47.20655154895473</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.20655154895473</v>
+        <v>510.1697853555977</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>316.9281030050443</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="C32" t="n">
-        <v>316.9281030050443</v>
+        <v>683.8707569666465</v>
       </c>
       <c r="D32" t="n">
-        <v>316.9281030050443</v>
+        <v>683.8707569666465</v>
       </c>
       <c r="E32" t="n">
-        <v>316.9281030050443</v>
+        <v>683.8707569666465</v>
       </c>
       <c r="F32" t="n">
-        <v>316.9281030050443</v>
+        <v>683.8707569666465</v>
       </c>
       <c r="G32" t="n">
         <v>316.9281030050443</v>
@@ -6700,13 +6700,13 @@
         <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6742,10 +6742,10 @@
         <v>1122.013229783223</v>
       </c>
       <c r="X32" t="n">
-        <v>702.8707663625338</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y32" t="n">
-        <v>702.8707663625338</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="33">
@@ -6758,16 +6758,16 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2215.901038951972</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="C34" t="n">
-        <v>2213.690930104068</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="D34" t="n">
-        <v>2047.812937305591</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E34" t="n">
-        <v>1878.054933556328</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F34" t="n">
-        <v>1878.054933556328</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
-        <v>1713.313753168846</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951972</v>
+        <v>777.289872017263</v>
       </c>
       <c r="U34" t="n">
-        <v>2215.901038951972</v>
+        <v>498.9032400660059</v>
       </c>
       <c r="V34" t="n">
-        <v>2215.901038951972</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="W34" t="n">
-        <v>2215.901038951972</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="X34" t="n">
-        <v>2215.901038951972</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="Y34" t="n">
-        <v>2215.901038951972</v>
+        <v>211.9477319364363</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>765.4265856715607</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C35" t="n">
-        <v>744.7955325958366</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D35" t="n">
-        <v>744.7955325958366</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E35" t="n">
-        <v>744.7955325958366</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.855172792597</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X35" t="n">
-        <v>1173.712709371907</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y35" t="n">
-        <v>765.4265856715607</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
@@ -7125,22 +7125,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>884.5750960434898</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U37" t="n">
-        <v>606.1884640922327</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V37" t="n">
-        <v>319.2329559626632</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W37" t="n">
-        <v>47.20655154895474</v>
+        <v>375.3860945019795</v>
       </c>
       <c r="X37" t="n">
-        <v>47.20655154895474</v>
+        <v>129.9943398353919</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.20655154895474</v>
+        <v>129.9943398353919</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1893.561637177626</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C38" t="n">
-        <v>1455.41916436105</v>
+        <v>1410.876791836583</v>
       </c>
       <c r="D38" t="n">
-        <v>1019.509379535494</v>
+        <v>974.9670070110278</v>
       </c>
       <c r="E38" t="n">
-        <v>585.7346346937893</v>
+        <v>541.1922621693229</v>
       </c>
       <c r="F38" t="n">
-        <v>157.867205102997</v>
+        <v>113.3248325785307</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235827</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043085</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,7 +7259,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
         <v>803.387703298788</v>
@@ -7292,13 +7292,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2215.901038951972</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="C40" t="n">
-        <v>2213.690930104068</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D40" t="n">
-        <v>2047.812937305591</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E40" t="n">
-        <v>1878.054933556328</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F40" t="n">
-        <v>1878.054933556328</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>1713.313753168846</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951972</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U40" t="n">
-        <v>2215.901038951972</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="V40" t="n">
-        <v>2215.901038951972</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="W40" t="n">
-        <v>2215.901038951972</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="X40" t="n">
-        <v>2215.901038951972</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="Y40" t="n">
-        <v>2215.901038951972</v>
+        <v>679.9277891048604</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435809</v>
@@ -7417,7 +7417,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V41" t="n">
-        <v>1970.158951931511</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W41" t="n">
-        <v>1970.158951931511</v>
+        <v>1340.617551476506</v>
       </c>
       <c r="X41" t="n">
-        <v>1551.016488510822</v>
+        <v>921.4750880558169</v>
       </c>
       <c r="Y41" t="n">
-        <v>1142.730364810475</v>
+        <v>921.4750880558169</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
         <v>341.0245550495863</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.20655154895474</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C43" t="n">
-        <v>47.20655154895474</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D43" t="n">
-        <v>47.20655154895474</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895474</v>
@@ -7605,16 +7605,16 @@
         <v>745.2331845165158</v>
       </c>
       <c r="V43" t="n">
-        <v>458.2776763869463</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W43" t="n">
-        <v>186.2512719732379</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X43" t="n">
-        <v>47.20655154895474</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.20655154895474</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>884.8517156860543</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
         <v>2043.069798152528</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V44" t="n">
-        <v>2117.135757396057</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W44" t="n">
-        <v>1712.28030280709</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X44" t="n">
-        <v>1293.137839386401</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y44" t="n">
-        <v>884.8517156860543</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7724,16 +7724,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
         <v>803.387703298788</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C46" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D46" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895473</v>
@@ -7833,25 +7833,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122813</v>
+        <v>616.3181969708289</v>
       </c>
       <c r="U46" t="n">
-        <v>696.7250309396778</v>
+        <v>616.3181969708289</v>
       </c>
       <c r="V46" t="n">
-        <v>696.7250309396778</v>
+        <v>616.3181969708289</v>
       </c>
       <c r="W46" t="n">
-        <v>696.7250309396778</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="X46" t="n">
-        <v>451.3332762730903</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="Y46" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
   </sheetData>
@@ -23263,10 +23263,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>400.3166567922962</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>46.83592823106298</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811444</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>108.4671038977607</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>13.47784226723638</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23500,19 +23500,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>142.6955223329693</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.744982140656852</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23661,10 +23661,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>62.36386087878336</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23673,7 +23673,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>122.7203348069274</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>207.9741511311683</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>42.7383574476155</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>33.92750726483524</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23910,7 +23910,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4671038977607</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>13.42442768340396</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>278.049567254024</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1031164274526</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24186,16 +24186,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.4467647681068</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>227.3083819112129</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>178.8640789423966</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>125.6837364913339</v>
+        <v>156.2188124708892</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>289.9888601006865</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,7 +24496,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>99.7786954642724</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,16 +24603,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106.1837529440684</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>245.6838052510962</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>233.3578346205089</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>265.4353278154675</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -24852,10 +24852,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24891,19 +24891,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>148.2156666237845</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>237.9040564208179</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>39.9533380561441</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24931,7 +24931,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>32.23443698533146</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25077,13 +25077,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>168.6480866421824</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>128.5785993705592</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>21.78440222863316</v>
       </c>
       <c r="C35" t="n">
-        <v>413.336305543444</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>107.9405221282244</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25365,19 +25365,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>234.7909711565238</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>285.9536173888157</v>
+        <v>330.0505661880374</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25551,7 +25551,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.6480866421824</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>210.9504241742055</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>219.0427239871115</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>229.2038258681488</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>106.1837529440684</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25845,13 +25845,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>105.2835638998814</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25867,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>118.2308787143488</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>248.0358572185188</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>112.1989141853974</v>
       </c>
       <c r="U46" t="n">
-        <v>84.59742047986694</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363547.6966943225</v>
+        <v>363547.6966943224</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363547.6966943225</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363547.6966943225</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943227</v>
       </c>
     </row>
     <row r="16">
@@ -26346,13 +26346,13 @@
         <v>125843.4334711117</v>
       </c>
       <c r="M2" t="n">
-        <v>125843.4334711118</v>
+        <v>125843.4334711117</v>
       </c>
       <c r="N2" t="n">
         <v>125843.4334711117</v>
       </c>
       <c r="O2" t="n">
-        <v>125843.4334711117</v>
+        <v>125843.4334711118</v>
       </c>
       <c r="P2" t="n">
         <v>125843.4334711117</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906756</v>
+        <v>551135.2009906755</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231687</v>
       </c>
       <c r="F4" t="n">
-        <v>414.2905444231686</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
         <v>414.2905444231689</v>
@@ -26447,16 +26447,16 @@
         <v>414.2905444231689</v>
       </c>
       <c r="L4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="M4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
         <v>414.2905444231689</v>
@@ -26481,13 +26481,13 @@
         <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963779</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963781</v>
@@ -26496,16 +26496,16 @@
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-471757.1392736249</v>
+        <v>-472398.3773874001</v>
       </c>
       <c r="F6" t="n">
-        <v>79378.0617170507</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="G6" t="n">
-        <v>79378.06171705072</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="H6" t="n">
-        <v>79378.06171705072</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="I6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="J6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="K6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="L6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="M6" t="n">
-        <v>-67672.70668552065</v>
+        <v>-68313.94479929602</v>
       </c>
       <c r="N6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="O6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327536</v>
       </c>
       <c r="P6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.82360327532</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932209</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932209</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
         <v>466.7019280932212</v>
@@ -26773,7 +26773,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
         <v>466.7019280932212</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619339</v>
+      </c>
+      <c r="F4" t="n">
         <v>590.081894361934</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.0818943619338</v>
       </c>
       <c r="G4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619338</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968722</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699057</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
@@ -31767,16 +31767,16 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766672</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184534</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879932</v>
+        <v>9.69507212887993</v>
       </c>
       <c r="I12" t="n">
         <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
@@ -31852,7 +31852,7 @@
         <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742732</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233621</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
@@ -31873,7 +31873,7 @@
         <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356903</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238409</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051973</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624555</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116987</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366645</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968722</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699057</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766672</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879469</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.21301584011286</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.69507212887993</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917231</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.3267216423362</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183763</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600659</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356902</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238408</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051972</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624555</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116985</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247771</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207635</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195196</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130046</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32247,28 +32247,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33733,7 +33733,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785917</v>
       </c>
       <c r="J11" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35488,19 +35488,19 @@
         <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742731</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624555</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116987</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366645</v>
@@ -35579,16 +35579,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207615</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027013</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785917</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562334</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207615</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027012</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207615</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36518,7 +36518,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -36597,7 +36597,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
@@ -36837,13 +36837,13 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36992,7 +36992,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37311,7 +37311,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37466,7 +37466,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,13 +37557,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.798273918454</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
         <v>117.855135640546</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37630,7 +37630,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,28 +37779,28 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125713</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37861,10 +37861,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -38019,7 +38019,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38031,10 +38031,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
